--- a/URI.xlsx
+++ b/URI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D605D2-063E-402E-97EC-B202ADC26923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F3215C-598E-4F8F-A8A1-D18DA48BE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1386C0F1-5925-4B1B-A399-61DCB3DD2007}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -196,21 +192,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>passwordのバリデーションが効かない.確認用のパスワードも渡してあげる。</t>
-    <rPh sb="22" eb="25">
-      <t>カクニンヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リレーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>word,favoriet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -237,10 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profile,library</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>職業で検索する。</t>
     <rPh sb="0" eb="2">
       <t>ショクギョウ</t>
@@ -251,15 +229,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profiles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>api/v1/language/n</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>api/v1/work/n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語の辞書名を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/v1/word/n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書の作成者と使用言語の名前を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りした人と辞書の名前を表示する。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/v1/favorite/n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user,lnguage（多：1）</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>library（多：1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>library,user（多：1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profiles（1：多）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile,library（1：多）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word,favoriet（1：多）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したプロフィールのユーザーと職業と言語の名前を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work,language,user（多：1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/v1/profile/n</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -660,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5BF00D-009A-49D0-B92D-A321A9AE02C5}">
-  <dimension ref="D2:I17"/>
+  <dimension ref="D2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.75" bestFit="1" customWidth="1"/>
@@ -677,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -689,7 +788,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.4">
@@ -710,10 +809,10 @@
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -728,16 +827,16 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -746,16 +845,16 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -763,92 +862,118 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
@@ -856,36 +981,73 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>